--- a/raw_data/raw_excel/Crinita_Cala_Estreta_gen2017- feb2019.xlsx
+++ b/raw_data/raw_excel/Crinita_Cala_Estreta_gen2017- feb2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/avipo_dtu_dk/Documents/Skrivebord/Postdoc/Projects/Fenology_cysto/raw_data/raw_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avipo\OneDrive - Danmarks Tekniske Universitet\Skrivebord\Postdoc\Projects\Fenology_cysto\raw_data\raw_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_B83C40E320B0E194052FCFF1F39C1F0FAC5C4EE3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9273149-B380-4A11-ACA4-16701E23E082}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C75716C-EA09-49C7-93ED-2068329A98FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="16" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estructura de talles" sheetId="7" r:id="rId1"/>
@@ -29,12 +29,11 @@
     <sheet name="Febrer 2018" sheetId="15" r:id="rId14"/>
     <sheet name="Abril 2018" sheetId="16" r:id="rId15"/>
     <sheet name="Maig 2018" sheetId="17" r:id="rId16"/>
-    <sheet name="Juny 2018" sheetId="19" r:id="rId17"/>
-    <sheet name="Juliol 2018" sheetId="20" r:id="rId18"/>
-    <sheet name="Agost 2018" sheetId="21" r:id="rId19"/>
-    <sheet name="Set-Oct 2018" sheetId="22" r:id="rId20"/>
-    <sheet name="Des 2018" sheetId="23" r:id="rId21"/>
-    <sheet name="Febrer 2019" sheetId="24" r:id="rId22"/>
+    <sheet name="Juliol 2018" sheetId="20" r:id="rId17"/>
+    <sheet name="Agost 2018" sheetId="21" r:id="rId18"/>
+    <sheet name="Set-Oct 2018" sheetId="22" r:id="rId19"/>
+    <sheet name="Des 2018" sheetId="23" r:id="rId20"/>
+    <sheet name="Febrer 2019" sheetId="24" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4150" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="143">
   <si>
     <t>Date</t>
   </si>
@@ -20898,2525 +20897,10 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:K137"/>
-  <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F123" sqref="C2:F123"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>11.5</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>14</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>14</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>9</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>11</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>8.5</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>11</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>6</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>9</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>1.5</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>11</v>
-      </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <v>5</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="E30">
-        <v>7</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31">
-        <v>7</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32">
-        <v>5</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33">
-        <v>6</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34">
-        <v>10</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="E35">
-        <v>6.5</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36">
-        <v>4</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-      <c r="E37">
-        <v>12</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38">
-        <v>4</v>
-      </c>
-      <c r="E38">
-        <v>4</v>
-      </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-      <c r="E39">
-        <v>16</v>
-      </c>
-      <c r="F39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40">
-        <v>4</v>
-      </c>
-      <c r="E40">
-        <v>14</v>
-      </c>
-      <c r="F40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41">
-        <v>12.5</v>
-      </c>
-      <c r="F41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="E42">
-        <v>12</v>
-      </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-      <c r="E43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44">
-        <v>4</v>
-      </c>
-      <c r="E44">
-        <v>5</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45">
-        <v>4</v>
-      </c>
-      <c r="E45">
-        <v>14</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46">
-        <v>4</v>
-      </c>
-      <c r="E46">
-        <v>12</v>
-      </c>
-      <c r="F46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47">
-        <v>5</v>
-      </c>
-      <c r="E47">
-        <v>6</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48">
-        <v>5</v>
-      </c>
-      <c r="E48">
-        <v>11</v>
-      </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49">
-        <v>5</v>
-      </c>
-      <c r="E49">
-        <v>8</v>
-      </c>
-      <c r="F49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50">
-        <v>5</v>
-      </c>
-      <c r="E50">
-        <v>8</v>
-      </c>
-      <c r="F50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51">
-        <v>5</v>
-      </c>
-      <c r="E51">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52">
-        <v>5</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53">
-        <v>5</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54">
-        <v>5</v>
-      </c>
-      <c r="E54">
-        <v>9</v>
-      </c>
-      <c r="F54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55">
-        <v>5</v>
-      </c>
-      <c r="E55">
-        <v>10.5</v>
-      </c>
-      <c r="F55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56">
-        <v>6</v>
-      </c>
-      <c r="E56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57">
-        <v>6</v>
-      </c>
-      <c r="E57">
-        <v>8</v>
-      </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58">
-        <v>6</v>
-      </c>
-      <c r="E58">
-        <v>9.5</v>
-      </c>
-      <c r="F58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59">
-        <v>6</v>
-      </c>
-      <c r="E59">
-        <v>6</v>
-      </c>
-      <c r="F59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60">
-        <v>6</v>
-      </c>
-      <c r="E60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61">
-        <v>6</v>
-      </c>
-      <c r="E61">
-        <v>3.5</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>46</v>
-      </c>
-      <c r="B62" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62">
-        <v>6</v>
-      </c>
-      <c r="E62">
-        <v>7.5</v>
-      </c>
-      <c r="F62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>46</v>
-      </c>
-      <c r="B63" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63">
-        <v>6</v>
-      </c>
-      <c r="E63">
-        <v>4.5</v>
-      </c>
-      <c r="F63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>46</v>
-      </c>
-      <c r="B64" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64">
-        <v>6</v>
-      </c>
-      <c r="E64">
-        <v>8</v>
-      </c>
-      <c r="F64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65">
-        <v>6</v>
-      </c>
-      <c r="E65">
-        <v>7</v>
-      </c>
-      <c r="F65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>46</v>
-      </c>
-      <c r="B66" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66">
-        <v>6</v>
-      </c>
-      <c r="E66">
-        <v>7</v>
-      </c>
-      <c r="F66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>46</v>
-      </c>
-      <c r="B67" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67">
-        <v>7</v>
-      </c>
-      <c r="E67">
-        <v>15</v>
-      </c>
-      <c r="F67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68">
-        <v>7</v>
-      </c>
-      <c r="E68">
-        <v>10.5</v>
-      </c>
-      <c r="F68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>46</v>
-      </c>
-      <c r="B69" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69">
-        <v>7</v>
-      </c>
-      <c r="E69">
-        <v>18</v>
-      </c>
-      <c r="F69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>46</v>
-      </c>
-      <c r="B70" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70">
-        <v>7</v>
-      </c>
-      <c r="E70">
-        <v>13.5</v>
-      </c>
-      <c r="F70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>46</v>
-      </c>
-      <c r="B71" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71">
-        <v>7</v>
-      </c>
-      <c r="E71">
-        <v>11</v>
-      </c>
-      <c r="F71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>46</v>
-      </c>
-      <c r="B72" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72">
-        <v>7</v>
-      </c>
-      <c r="E72">
-        <v>13</v>
-      </c>
-      <c r="F72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>46</v>
-      </c>
-      <c r="B73" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73">
-        <v>8</v>
-      </c>
-      <c r="E73">
-        <v>8</v>
-      </c>
-      <c r="F73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>46</v>
-      </c>
-      <c r="B74" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74">
-        <v>8</v>
-      </c>
-      <c r="E74">
-        <v>13</v>
-      </c>
-      <c r="F74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>46</v>
-      </c>
-      <c r="B75" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75">
-        <v>8</v>
-      </c>
-      <c r="E75">
-        <v>15</v>
-      </c>
-      <c r="F75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>46</v>
-      </c>
-      <c r="B76" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76">
-        <v>8</v>
-      </c>
-      <c r="E76">
-        <v>12</v>
-      </c>
-      <c r="F76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>46</v>
-      </c>
-      <c r="B77" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77">
-        <v>8</v>
-      </c>
-      <c r="E77">
-        <v>16</v>
-      </c>
-      <c r="F77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>46</v>
-      </c>
-      <c r="B78" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78">
-        <v>9</v>
-      </c>
-      <c r="E78">
-        <v>16</v>
-      </c>
-      <c r="F78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>46</v>
-      </c>
-      <c r="B79" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79">
-        <v>9</v>
-      </c>
-      <c r="E79">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>46</v>
-      </c>
-      <c r="B80" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80">
-        <v>9</v>
-      </c>
-      <c r="E80">
-        <v>10</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>46</v>
-      </c>
-      <c r="B81" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81">
-        <v>9</v>
-      </c>
-      <c r="E81">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>46</v>
-      </c>
-      <c r="B82" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82">
-        <v>9</v>
-      </c>
-      <c r="E82">
-        <v>10</v>
-      </c>
-      <c r="F82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>46</v>
-      </c>
-      <c r="B83" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83">
-        <v>9</v>
-      </c>
-      <c r="E83">
-        <v>13</v>
-      </c>
-      <c r="F83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>46</v>
-      </c>
-      <c r="B84" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84">
-        <v>9</v>
-      </c>
-      <c r="E84">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>46</v>
-      </c>
-      <c r="B85" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85">
-        <v>9</v>
-      </c>
-      <c r="E85">
-        <v>12</v>
-      </c>
-      <c r="F85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>46</v>
-      </c>
-      <c r="B86" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86">
-        <v>9</v>
-      </c>
-      <c r="E86">
-        <v>14</v>
-      </c>
-      <c r="F86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>46</v>
-      </c>
-      <c r="B87" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87">
-        <v>10</v>
-      </c>
-      <c r="E87">
-        <v>27</v>
-      </c>
-      <c r="F87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>46</v>
-      </c>
-      <c r="B88" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88">
-        <v>10</v>
-      </c>
-      <c r="E88">
-        <v>12</v>
-      </c>
-      <c r="F88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>46</v>
-      </c>
-      <c r="B89" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89">
-        <v>10</v>
-      </c>
-      <c r="E89">
-        <v>11.5</v>
-      </c>
-      <c r="F89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>46</v>
-      </c>
-      <c r="B90" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90">
-        <v>10</v>
-      </c>
-      <c r="E90">
-        <v>21</v>
-      </c>
-      <c r="F90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>46</v>
-      </c>
-      <c r="B91" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91">
-        <v>10</v>
-      </c>
-      <c r="E91">
-        <v>27</v>
-      </c>
-      <c r="F91">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>46</v>
-      </c>
-      <c r="B92" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92">
-        <v>11</v>
-      </c>
-      <c r="E92">
-        <v>13</v>
-      </c>
-      <c r="F92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>46</v>
-      </c>
-      <c r="B93" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93">
-        <v>11</v>
-      </c>
-      <c r="E93">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>46</v>
-      </c>
-      <c r="B94" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94">
-        <v>11</v>
-      </c>
-      <c r="E94">
-        <v>14</v>
-      </c>
-      <c r="F94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>46</v>
-      </c>
-      <c r="B95" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95">
-        <v>11</v>
-      </c>
-      <c r="E95">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>46</v>
-      </c>
-      <c r="B96" s="1">
-        <v>43280</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96">
-        <v>11</v>
-      </c>
-      <c r="E96">
-        <v>8</v>
-      </c>
-      <c r="F96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>46</v>
-      </c>
-      <c r="B97" s="1">
-        <v>43281</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97">
-        <v>11</v>
-      </c>
-      <c r="E97">
-        <v>5</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>46</v>
-      </c>
-      <c r="B98" s="1">
-        <v>43282</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98">
-        <v>11</v>
-      </c>
-      <c r="E98">
-        <v>17</v>
-      </c>
-      <c r="F98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>46</v>
-      </c>
-      <c r="B99" s="1">
-        <v>43283</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99">
-        <v>12</v>
-      </c>
-      <c r="E99">
-        <v>18</v>
-      </c>
-      <c r="F99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>46</v>
-      </c>
-      <c r="B100" s="1">
-        <v>43284</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100">
-        <v>12</v>
-      </c>
-      <c r="E100">
-        <v>12</v>
-      </c>
-      <c r="F100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>46</v>
-      </c>
-      <c r="B101" s="1">
-        <v>43285</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101">
-        <v>12</v>
-      </c>
-      <c r="E101">
-        <v>14</v>
-      </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>46</v>
-      </c>
-      <c r="B102" s="1">
-        <v>43286</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102">
-        <v>12</v>
-      </c>
-      <c r="E102">
-        <v>17</v>
-      </c>
-      <c r="F102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>46</v>
-      </c>
-      <c r="B103" s="1">
-        <v>43287</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103">
-        <v>13</v>
-      </c>
-      <c r="E103">
-        <v>16</v>
-      </c>
-      <c r="F103">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>46</v>
-      </c>
-      <c r="B104" s="1">
-        <v>43288</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104">
-        <v>13</v>
-      </c>
-      <c r="E104">
-        <v>4</v>
-      </c>
-      <c r="F104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>46</v>
-      </c>
-      <c r="B105" s="1">
-        <v>43289</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105">
-        <v>13</v>
-      </c>
-      <c r="E105">
-        <v>5</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>46</v>
-      </c>
-      <c r="B106" s="1">
-        <v>43290</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106">
-        <v>13</v>
-      </c>
-      <c r="E106">
-        <v>4.5</v>
-      </c>
-      <c r="F106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>46</v>
-      </c>
-      <c r="B107" s="1">
-        <v>43291</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107">
-        <v>13</v>
-      </c>
-      <c r="E107">
-        <v>5.5</v>
-      </c>
-      <c r="F107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>46</v>
-      </c>
-      <c r="B108" s="1">
-        <v>43292</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108">
-        <v>13</v>
-      </c>
-      <c r="E108">
-        <v>5.5</v>
-      </c>
-      <c r="F108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>46</v>
-      </c>
-      <c r="B109" s="1">
-        <v>43293</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109">
-        <v>13</v>
-      </c>
-      <c r="E109">
-        <v>7.5</v>
-      </c>
-      <c r="F109">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>46</v>
-      </c>
-      <c r="B110" s="1">
-        <v>43294</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110">
-        <v>13</v>
-      </c>
-      <c r="E110">
-        <v>15.5</v>
-      </c>
-      <c r="F110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>46</v>
-      </c>
-      <c r="B111" s="1">
-        <v>43295</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111">
-        <v>14</v>
-      </c>
-      <c r="E111">
-        <v>4</v>
-      </c>
-      <c r="F111">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>46</v>
-      </c>
-      <c r="B112" s="1">
-        <v>43296</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112">
-        <v>14</v>
-      </c>
-      <c r="E112">
-        <v>16</v>
-      </c>
-      <c r="F112">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>46</v>
-      </c>
-      <c r="B113" s="1">
-        <v>43297</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113">
-        <v>14</v>
-      </c>
-      <c r="E113">
-        <v>19</v>
-      </c>
-      <c r="F113">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>46</v>
-      </c>
-      <c r="B114" s="1">
-        <v>43298</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114">
-        <v>15</v>
-      </c>
-      <c r="E114">
-        <v>4</v>
-      </c>
-      <c r="F114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>46</v>
-      </c>
-      <c r="B115" s="1">
-        <v>43299</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115">
-        <v>15</v>
-      </c>
-      <c r="E115">
-        <v>16</v>
-      </c>
-      <c r="F115">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>46</v>
-      </c>
-      <c r="B116" s="1">
-        <v>43300</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116">
-        <v>16</v>
-      </c>
-      <c r="E116">
-        <v>13</v>
-      </c>
-      <c r="F116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>46</v>
-      </c>
-      <c r="B117" s="1">
-        <v>43301</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117">
-        <v>16</v>
-      </c>
-      <c r="E117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>46</v>
-      </c>
-      <c r="B118" s="1">
-        <v>43302</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118">
-        <v>16</v>
-      </c>
-      <c r="E118">
-        <v>19</v>
-      </c>
-      <c r="F118">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>46</v>
-      </c>
-      <c r="B119" s="1">
-        <v>43303</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119">
-        <v>17</v>
-      </c>
-      <c r="E119">
-        <v>8</v>
-      </c>
-      <c r="F119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>46</v>
-      </c>
-      <c r="B120" s="1">
-        <v>43304</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120">
-        <v>17</v>
-      </c>
-      <c r="E120">
-        <v>13</v>
-      </c>
-      <c r="F120">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>46</v>
-      </c>
-      <c r="B121" s="1">
-        <v>43305</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121">
-        <v>17</v>
-      </c>
-      <c r="E121">
-        <v>15</v>
-      </c>
-      <c r="F121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>46</v>
-      </c>
-      <c r="B122" s="1">
-        <v>43306</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122">
-        <v>18</v>
-      </c>
-      <c r="E122">
-        <v>8.5</v>
-      </c>
-      <c r="F122">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>46</v>
-      </c>
-      <c r="B123" s="1">
-        <v>43307</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123">
-        <v>18</v>
-      </c>
-      <c r="E123">
-        <v>9</v>
-      </c>
-      <c r="F123">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B124" s="1"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B125" s="1"/>
-      <c r="F125" s="23">
-        <f>COUNTIF(F2:F123,1)</f>
-        <v>10</v>
-      </c>
-      <c r="G125" s="23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B126" s="1"/>
-      <c r="F126" s="23">
-        <f>COUNTIF(F2:F123,2)</f>
-        <v>36</v>
-      </c>
-      <c r="G126" s="23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B127" s="1"/>
-      <c r="F127" s="23">
-        <f>COUNTIF(F2:F123,3)</f>
-        <v>37</v>
-      </c>
-      <c r="G127" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B128" s="1"/>
-      <c r="F128" s="23">
-        <f>COUNTIF(F2:F123,4)</f>
-        <v>16</v>
-      </c>
-      <c r="G128" s="23" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B129" s="1"/>
-      <c r="F129">
-        <v>122</v>
-      </c>
-      <c r="G129" s="23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B130" s="1"/>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B131" s="1"/>
-      <c r="E131" s="24">
-        <f>AVERAGE(E2:E123)</f>
-        <v>9.2827868852459012</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B132" s="1"/>
-      <c r="E132" s="25">
-        <f>STDEV(E2:E123)</f>
-        <v>5.3516768457787851</v>
-      </c>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B133" s="1"/>
-      <c r="E133" s="24">
-        <f>E132/SQRT(COUNT(E2:E123))</f>
-        <v>0.48451805581105467</v>
-      </c>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B134" s="1"/>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B135" s="1"/>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B136" s="1"/>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B137" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:F118"/>
     </sheetView>
   </sheetViews>
@@ -25808,7 +23292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K135"/>
   <sheetViews>
@@ -28226,6 +25710,2153 @@
       <c r="E135" s="24">
         <f>E134/SQRT(COUNT(E2:E125))</f>
         <v>0.45276544397011326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:K118"/>
+  <sheetViews>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>10.5</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>9.5</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>10.5</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>6.5</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>14</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>13</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>13.5</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+      <c r="E39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>9</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>23</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>18</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>13</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>23</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>11</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52">
+        <v>11</v>
+      </c>
+      <c r="E52">
+        <v>6.5</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53">
+        <v>11</v>
+      </c>
+      <c r="E53">
+        <v>8</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>11</v>
+      </c>
+      <c r="E54">
+        <v>13</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <v>11</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>11</v>
+      </c>
+      <c r="E56">
+        <v>16</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>11</v>
+      </c>
+      <c r="E57">
+        <v>14</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58">
+        <v>11</v>
+      </c>
+      <c r="E58">
+        <v>20</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <v>11</v>
+      </c>
+      <c r="E59">
+        <v>14</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60">
+        <v>11</v>
+      </c>
+      <c r="E60">
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61">
+        <v>12</v>
+      </c>
+      <c r="E61">
+        <v>24.5</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62">
+        <v>12</v>
+      </c>
+      <c r="E62">
+        <v>12</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>13</v>
+      </c>
+      <c r="E63">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64">
+        <v>13</v>
+      </c>
+      <c r="E64">
+        <v>9</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65">
+        <v>13</v>
+      </c>
+      <c r="E65">
+        <v>13.5</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66">
+        <v>13</v>
+      </c>
+      <c r="E66">
+        <v>20</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67">
+        <v>13</v>
+      </c>
+      <c r="E67">
+        <v>24</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68">
+        <v>13</v>
+      </c>
+      <c r="E68">
+        <v>25</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69">
+        <v>14</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70">
+        <v>14</v>
+      </c>
+      <c r="E70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71">
+        <v>14</v>
+      </c>
+      <c r="E71">
+        <v>18</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72">
+        <v>14</v>
+      </c>
+      <c r="E72">
+        <v>15</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73">
+        <v>14</v>
+      </c>
+      <c r="E73">
+        <v>10</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74">
+        <v>14</v>
+      </c>
+      <c r="E74">
+        <v>11</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75">
+        <v>15</v>
+      </c>
+      <c r="E75">
+        <v>12</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76">
+        <v>15</v>
+      </c>
+      <c r="E76">
+        <v>6</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77">
+        <v>15</v>
+      </c>
+      <c r="E77">
+        <v>15</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78">
+        <v>15</v>
+      </c>
+      <c r="E78">
+        <v>17</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79">
+        <v>15</v>
+      </c>
+      <c r="E79">
+        <v>10</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80">
+        <v>15</v>
+      </c>
+      <c r="E80">
+        <v>11</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>46</v>
+      </c>
+      <c r="B81" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81">
+        <v>16</v>
+      </c>
+      <c r="E81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82">
+        <v>16</v>
+      </c>
+      <c r="E82">
+        <v>13</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83">
+        <v>16</v>
+      </c>
+      <c r="E83">
+        <v>13</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84">
+        <v>16</v>
+      </c>
+      <c r="E84">
+        <v>11</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85">
+        <v>16</v>
+      </c>
+      <c r="E85">
+        <v>11</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86">
+        <v>16</v>
+      </c>
+      <c r="E86">
+        <v>10</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87">
+        <v>16</v>
+      </c>
+      <c r="E87">
+        <v>9</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88">
+        <v>16</v>
+      </c>
+      <c r="E88">
+        <v>11</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89">
+        <v>17</v>
+      </c>
+      <c r="E89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90">
+        <v>17</v>
+      </c>
+      <c r="E90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91">
+        <v>17</v>
+      </c>
+      <c r="E91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>46</v>
+      </c>
+      <c r="B92" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92">
+        <v>17</v>
+      </c>
+      <c r="E92">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>46</v>
+      </c>
+      <c r="B93" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93">
+        <v>18</v>
+      </c>
+      <c r="E93">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>46</v>
+      </c>
+      <c r="B94" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94">
+        <v>19</v>
+      </c>
+      <c r="E94">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95">
+        <v>19</v>
+      </c>
+      <c r="E95">
+        <v>12</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>46</v>
+      </c>
+      <c r="B96" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96">
+        <v>19</v>
+      </c>
+      <c r="E96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>46</v>
+      </c>
+      <c r="B97" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97">
+        <v>19</v>
+      </c>
+      <c r="E97">
+        <v>19</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>46</v>
+      </c>
+      <c r="B98" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98">
+        <v>19</v>
+      </c>
+      <c r="E98">
+        <v>16</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>46</v>
+      </c>
+      <c r="B99" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99">
+        <v>19</v>
+      </c>
+      <c r="E99">
+        <v>13</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100">
+        <v>19</v>
+      </c>
+      <c r="E100">
+        <v>23</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>46</v>
+      </c>
+      <c r="B101" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101">
+        <v>20</v>
+      </c>
+      <c r="E101">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102">
+        <v>20</v>
+      </c>
+      <c r="E102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103">
+        <v>20</v>
+      </c>
+      <c r="E103">
+        <v>15</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104">
+        <v>21</v>
+      </c>
+      <c r="E104">
+        <v>7</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105">
+        <v>22</v>
+      </c>
+      <c r="E105">
+        <v>10</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>46</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106">
+        <v>22</v>
+      </c>
+      <c r="E106">
+        <v>8</v>
+      </c>
+      <c r="F106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>46</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107">
+        <v>22</v>
+      </c>
+      <c r="E107">
+        <v>10</v>
+      </c>
+      <c r="F107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>46</v>
+      </c>
+      <c r="B108" s="1">
+        <v>43397</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108">
+        <v>23</v>
+      </c>
+      <c r="E108">
+        <v>15</v>
+      </c>
+      <c r="F108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F110" s="23">
+        <f>COUNTIF(F2:F108,1)</f>
+        <v>26</v>
+      </c>
+      <c r="G110" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F111" s="23">
+        <f>COUNTIF(F2:F108,2)</f>
+        <v>32</v>
+      </c>
+      <c r="G111" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F112" s="23">
+        <f>COUNTIF(F2:F108,3)</f>
+        <v>12</v>
+      </c>
+      <c r="G112" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="F113" s="23">
+        <f>COUNTIF(F2:F108,4)</f>
+        <v>1</v>
+      </c>
+      <c r="G113" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="F114">
+        <v>124</v>
+      </c>
+      <c r="G114" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E116" s="24">
+        <f>AVERAGE(E2:E108)</f>
+        <v>10.383177570093459</v>
+      </c>
+    </row>
+    <row r="117" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E117" s="25">
+        <f>STDEV(E2:E108)</f>
+        <v>5.2434053096967714</v>
+      </c>
+    </row>
+    <row r="118" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E118" s="24">
+        <f>E117/SQRT(COUNT(E2:E108))</f>
+        <v>0.50689912397396464</v>
       </c>
     </row>
   </sheetData>
@@ -30934,2153 +30565,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:K118"/>
-  <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F108"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>10.5</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>9.5</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>7</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>16</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>7</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>9</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>10.5</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <v>8</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <v>9</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <v>6</v>
-      </c>
-      <c r="E26">
-        <v>4</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27">
-        <v>6</v>
-      </c>
-      <c r="E27">
-        <v>6.5</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28">
-        <v>6</v>
-      </c>
-      <c r="E28">
-        <v>14</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29">
-        <v>6</v>
-      </c>
-      <c r="E29">
-        <v>13</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30">
-        <v>6</v>
-      </c>
-      <c r="E30">
-        <v>9</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31">
-        <v>6</v>
-      </c>
-      <c r="E31">
-        <v>13.5</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32">
-        <v>6</v>
-      </c>
-      <c r="E32">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33">
-        <v>7</v>
-      </c>
-      <c r="E33">
-        <v>12</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34">
-        <v>7</v>
-      </c>
-      <c r="E34">
-        <v>9</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35">
-        <v>8</v>
-      </c>
-      <c r="E35">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36">
-        <v>8</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37">
-        <v>8</v>
-      </c>
-      <c r="E37">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38">
-        <v>8</v>
-      </c>
-      <c r="E38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39">
-        <v>9</v>
-      </c>
-      <c r="E39">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40">
-        <v>9</v>
-      </c>
-      <c r="E40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41">
-        <v>9</v>
-      </c>
-      <c r="E41">
-        <v>10</v>
-      </c>
-      <c r="F41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42">
-        <v>9</v>
-      </c>
-      <c r="E42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43">
-        <v>9</v>
-      </c>
-      <c r="E43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44">
-        <v>9</v>
-      </c>
-      <c r="E44">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45">
-        <v>10</v>
-      </c>
-      <c r="E45">
-        <v>10</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46">
-        <v>10</v>
-      </c>
-      <c r="E46">
-        <v>10</v>
-      </c>
-      <c r="F46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47">
-        <v>10</v>
-      </c>
-      <c r="E47">
-        <v>23</v>
-      </c>
-      <c r="F47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48">
-        <v>10</v>
-      </c>
-      <c r="E48">
-        <v>18</v>
-      </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49">
-        <v>10</v>
-      </c>
-      <c r="E49">
-        <v>13</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50">
-        <v>10</v>
-      </c>
-      <c r="E50">
-        <v>23</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51">
-        <v>11</v>
-      </c>
-      <c r="E51">
-        <v>5</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52">
-        <v>11</v>
-      </c>
-      <c r="E52">
-        <v>6.5</v>
-      </c>
-      <c r="F52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53">
-        <v>11</v>
-      </c>
-      <c r="E53">
-        <v>8</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54">
-        <v>11</v>
-      </c>
-      <c r="E54">
-        <v>13</v>
-      </c>
-      <c r="F54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55">
-        <v>11</v>
-      </c>
-      <c r="E55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56">
-        <v>11</v>
-      </c>
-      <c r="E56">
-        <v>16</v>
-      </c>
-      <c r="F56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57">
-        <v>11</v>
-      </c>
-      <c r="E57">
-        <v>14</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58">
-        <v>11</v>
-      </c>
-      <c r="E58">
-        <v>20</v>
-      </c>
-      <c r="F58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59">
-        <v>11</v>
-      </c>
-      <c r="E59">
-        <v>14</v>
-      </c>
-      <c r="F59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60">
-        <v>11</v>
-      </c>
-      <c r="E60">
-        <v>8</v>
-      </c>
-      <c r="F60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61">
-        <v>12</v>
-      </c>
-      <c r="E61">
-        <v>24.5</v>
-      </c>
-      <c r="F61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>46</v>
-      </c>
-      <c r="B62" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62">
-        <v>12</v>
-      </c>
-      <c r="E62">
-        <v>12</v>
-      </c>
-      <c r="F62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>46</v>
-      </c>
-      <c r="B63" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63">
-        <v>13</v>
-      </c>
-      <c r="E63">
-        <v>9</v>
-      </c>
-      <c r="F63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>46</v>
-      </c>
-      <c r="B64" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64">
-        <v>13</v>
-      </c>
-      <c r="E64">
-        <v>9</v>
-      </c>
-      <c r="F64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65">
-        <v>13</v>
-      </c>
-      <c r="E65">
-        <v>13.5</v>
-      </c>
-      <c r="F65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>46</v>
-      </c>
-      <c r="B66" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66">
-        <v>13</v>
-      </c>
-      <c r="E66">
-        <v>20</v>
-      </c>
-      <c r="F66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>46</v>
-      </c>
-      <c r="B67" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67">
-        <v>13</v>
-      </c>
-      <c r="E67">
-        <v>24</v>
-      </c>
-      <c r="F67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68">
-        <v>13</v>
-      </c>
-      <c r="E68">
-        <v>25</v>
-      </c>
-      <c r="F68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>46</v>
-      </c>
-      <c r="B69" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69">
-        <v>14</v>
-      </c>
-      <c r="E69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>46</v>
-      </c>
-      <c r="B70" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70">
-        <v>14</v>
-      </c>
-      <c r="E70">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>46</v>
-      </c>
-      <c r="B71" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71">
-        <v>14</v>
-      </c>
-      <c r="E71">
-        <v>18</v>
-      </c>
-      <c r="F71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>46</v>
-      </c>
-      <c r="B72" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72">
-        <v>14</v>
-      </c>
-      <c r="E72">
-        <v>15</v>
-      </c>
-      <c r="F72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>46</v>
-      </c>
-      <c r="B73" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73">
-        <v>14</v>
-      </c>
-      <c r="E73">
-        <v>10</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>46</v>
-      </c>
-      <c r="B74" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74">
-        <v>14</v>
-      </c>
-      <c r="E74">
-        <v>11</v>
-      </c>
-      <c r="F74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>46</v>
-      </c>
-      <c r="B75" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75">
-        <v>15</v>
-      </c>
-      <c r="E75">
-        <v>12</v>
-      </c>
-      <c r="F75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>46</v>
-      </c>
-      <c r="B76" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76">
-        <v>15</v>
-      </c>
-      <c r="E76">
-        <v>6</v>
-      </c>
-      <c r="F76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>46</v>
-      </c>
-      <c r="B77" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77">
-        <v>15</v>
-      </c>
-      <c r="E77">
-        <v>15</v>
-      </c>
-      <c r="F77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>46</v>
-      </c>
-      <c r="B78" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78">
-        <v>15</v>
-      </c>
-      <c r="E78">
-        <v>17</v>
-      </c>
-      <c r="F78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>46</v>
-      </c>
-      <c r="B79" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79">
-        <v>15</v>
-      </c>
-      <c r="E79">
-        <v>10</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>46</v>
-      </c>
-      <c r="B80" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80">
-        <v>15</v>
-      </c>
-      <c r="E80">
-        <v>11</v>
-      </c>
-      <c r="F80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>46</v>
-      </c>
-      <c r="B81" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81">
-        <v>16</v>
-      </c>
-      <c r="E81">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>46</v>
-      </c>
-      <c r="B82" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82">
-        <v>16</v>
-      </c>
-      <c r="E82">
-        <v>13</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>46</v>
-      </c>
-      <c r="B83" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83">
-        <v>16</v>
-      </c>
-      <c r="E83">
-        <v>13</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>46</v>
-      </c>
-      <c r="B84" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84">
-        <v>16</v>
-      </c>
-      <c r="E84">
-        <v>11</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>46</v>
-      </c>
-      <c r="B85" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85">
-        <v>16</v>
-      </c>
-      <c r="E85">
-        <v>11</v>
-      </c>
-      <c r="F85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>46</v>
-      </c>
-      <c r="B86" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86">
-        <v>16</v>
-      </c>
-      <c r="E86">
-        <v>10</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>46</v>
-      </c>
-      <c r="B87" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87">
-        <v>16</v>
-      </c>
-      <c r="E87">
-        <v>9</v>
-      </c>
-      <c r="F87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>46</v>
-      </c>
-      <c r="B88" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88">
-        <v>16</v>
-      </c>
-      <c r="E88">
-        <v>11</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>46</v>
-      </c>
-      <c r="B89" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C89" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89">
-        <v>17</v>
-      </c>
-      <c r="E89">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>46</v>
-      </c>
-      <c r="B90" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C90" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90">
-        <v>17</v>
-      </c>
-      <c r="E90">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>46</v>
-      </c>
-      <c r="B91" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C91" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91">
-        <v>17</v>
-      </c>
-      <c r="E91">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>46</v>
-      </c>
-      <c r="B92" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C92" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92">
-        <v>17</v>
-      </c>
-      <c r="E92">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>46</v>
-      </c>
-      <c r="B93" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C93" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93">
-        <v>18</v>
-      </c>
-      <c r="E93">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>46</v>
-      </c>
-      <c r="B94" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C94" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94">
-        <v>19</v>
-      </c>
-      <c r="E94">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>46</v>
-      </c>
-      <c r="B95" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C95" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95">
-        <v>19</v>
-      </c>
-      <c r="E95">
-        <v>12</v>
-      </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>46</v>
-      </c>
-      <c r="B96" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C96" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96">
-        <v>19</v>
-      </c>
-      <c r="E96">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>46</v>
-      </c>
-      <c r="B97" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C97" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97">
-        <v>19</v>
-      </c>
-      <c r="E97">
-        <v>19</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>46</v>
-      </c>
-      <c r="B98" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C98" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98">
-        <v>19</v>
-      </c>
-      <c r="E98">
-        <v>16</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>46</v>
-      </c>
-      <c r="B99" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C99" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99">
-        <v>19</v>
-      </c>
-      <c r="E99">
-        <v>13</v>
-      </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>46</v>
-      </c>
-      <c r="B100" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C100" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100">
-        <v>19</v>
-      </c>
-      <c r="E100">
-        <v>23</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>46</v>
-      </c>
-      <c r="B101" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C101" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101">
-        <v>20</v>
-      </c>
-      <c r="E101">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>46</v>
-      </c>
-      <c r="B102" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C102" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102">
-        <v>20</v>
-      </c>
-      <c r="E102">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>46</v>
-      </c>
-      <c r="B103" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C103" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103">
-        <v>20</v>
-      </c>
-      <c r="E103">
-        <v>15</v>
-      </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>46</v>
-      </c>
-      <c r="B104" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C104" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104">
-        <v>21</v>
-      </c>
-      <c r="E104">
-        <v>7</v>
-      </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>46</v>
-      </c>
-      <c r="B105" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C105" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105">
-        <v>22</v>
-      </c>
-      <c r="E105">
-        <v>10</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>46</v>
-      </c>
-      <c r="B106" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C106" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106">
-        <v>22</v>
-      </c>
-      <c r="E106">
-        <v>8</v>
-      </c>
-      <c r="F106">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>46</v>
-      </c>
-      <c r="B107" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C107" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107">
-        <v>22</v>
-      </c>
-      <c r="E107">
-        <v>10</v>
-      </c>
-      <c r="F107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>46</v>
-      </c>
-      <c r="B108" s="1">
-        <v>43397</v>
-      </c>
-      <c r="C108" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108">
-        <v>23</v>
-      </c>
-      <c r="E108">
-        <v>15</v>
-      </c>
-      <c r="F108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F110" s="23">
-        <f>COUNTIF(F2:F108,1)</f>
-        <v>26</v>
-      </c>
-      <c r="G110" s="23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F111" s="23">
-        <f>COUNTIF(F2:F108,2)</f>
-        <v>32</v>
-      </c>
-      <c r="G111" s="23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F112" s="23">
-        <f>COUNTIF(F2:F108,3)</f>
-        <v>12</v>
-      </c>
-      <c r="G112" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="113" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="F113" s="23">
-        <f>COUNTIF(F2:F108,4)</f>
-        <v>1</v>
-      </c>
-      <c r="G113" s="23" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="114" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="F114">
-        <v>124</v>
-      </c>
-      <c r="G114" s="23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="116" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E116" s="24">
-        <f>AVERAGE(E2:E108)</f>
-        <v>10.383177570093459</v>
-      </c>
-    </row>
-    <row r="117" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E117" s="25">
-        <f>STDEV(E2:E108)</f>
-        <v>5.2434053096967714</v>
-      </c>
-    </row>
-    <row r="118" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E118" s="24">
-        <f>E117/SQRT(COUNT(E2:E108))</f>
-        <v>0.50689912397396464</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:K129"/>
   <sheetViews>
@@ -35321,11 +32805,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:K144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>

--- a/raw_data/raw_excel/Crinita_Cala_Estreta_gen2017- feb2019.xlsx
+++ b/raw_data/raw_excel/Crinita_Cala_Estreta_gen2017- feb2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avipo\OneDrive - Danmarks Tekniske Universitet\Skrivebord\Postdoc\Projects\Fenology_cysto\raw_data\raw_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C75716C-EA09-49C7-93ED-2068329A98FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747C38D2-44F7-4591-9B68-568DF096DCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2790" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estructura de talles" sheetId="7" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="144">
   <si>
     <t>Date</t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>sp = elegans</t>
   </si>
 </sst>
 </file>
@@ -4505,8 +4508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4635,6 +4638,9 @@
       </c>
       <c r="E6">
         <v>3</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -6555,8 +6561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F108" sqref="C2:F108"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8654,8 +8660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F102"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10717,7 +10723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A123" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -13755,8 +13761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K147"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F137"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="I143" sqref="I143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16591,8 +16597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F106"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18790,7 +18796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A78" workbookViewId="0">
       <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
@@ -20900,8 +20906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F118"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23296,7 +23302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:F125"/>
     </sheetView>
   </sheetViews>
@@ -25721,8 +25727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F108"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27869,7 +27875,7 @@
   <dimension ref="A1:J316"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -30568,8 +30574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F119"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32809,7 +32815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:K144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -35305,7 +35311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A94" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:J4"/>
     </sheetView>
   </sheetViews>
@@ -37144,8 +37150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F101"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38952,8 +38958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41036,8 +41042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J146"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F139"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -43495,8 +43501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F95"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -45206,7 +45212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -46357,8 +46363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F111"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
